--- a/Testing/Test Cases.xlsx
+++ b/Testing/Test Cases.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Test CaseType</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
@@ -71,7 +65,67 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>R3</t>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Ultrasonic Sensor for motion detection</t>
+  </si>
+  <si>
+    <t>LED's for confirmation of Security Bot status</t>
+  </si>
+  <si>
+    <t>Button for switching the system on and off</t>
+  </si>
+  <si>
+    <t>Receive Arduino status through serial port</t>
+  </si>
+  <si>
+    <t>Use serial port input as part of the program</t>
+  </si>
+  <si>
+    <t>Determine next steps in relation to input</t>
+  </si>
+  <si>
+    <t>Send an email to a recipent</t>
+  </si>
+  <si>
+    <t>Confirm sending status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA001 </t>
+  </si>
+  <si>
+    <t>RA002</t>
+  </si>
+  <si>
+    <t>RA003</t>
+  </si>
+  <si>
+    <t>RJ004</t>
+  </si>
+  <si>
+    <t>RJ005</t>
+  </si>
+  <si>
+    <t>RJ006</t>
+  </si>
+  <si>
+    <t>RJ007</t>
+  </si>
+  <si>
+    <t>RJ008</t>
   </si>
 </sst>
 </file>
@@ -95,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,7 +177,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -400,17 +460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K5"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
@@ -437,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -454,26 +514,90 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases.xlsx
+++ b/Testing/Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\University Work\CT4003 Programming and Software Development\Semester Two\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -126,6 +126,69 @@
   </si>
   <si>
     <t>RJ008</t>
+  </si>
+  <si>
+    <t>RA001/N</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>RA002/N</t>
+  </si>
+  <si>
+    <t>RA003/N</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>RJ004/N</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>RJ005/N</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>RJ006/N</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>RJ007/N</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Severity (Major, Minor)</t>
+  </si>
+  <si>
+    <t>Initiate the system, move the Arduino board from its original location</t>
+  </si>
+  <si>
+    <t>The Arduino would pick up the movement and send a seven to the Java code to initiate the breach email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Arduino board would </t>
+  </si>
+  <si>
+    <t>Initiate the system, and place a object in the path of the ultrasonic sensor</t>
   </si>
 </sst>
 </file>
@@ -149,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +222,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,11 +256,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K11"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,15 +557,17 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="95.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,95 +596,233 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases.xlsx
+++ b/Testing/Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\University Work\CT4003 Programming and Software Development\Semester Two\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -41,21 +41,12 @@
     <t>Actual Outcome</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Requirement ID</t>
   </si>
   <si>
-    <t>Further Comments</t>
-  </si>
-  <si>
     <t>Test CaseType</t>
   </si>
   <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -71,15 +62,9 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>TC006</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
-    <t>TC008</t>
-  </si>
-  <si>
     <t>Ultrasonic Sensor for motion detection</t>
   </si>
   <si>
@@ -137,15 +122,9 @@
     <t>RA002/N</t>
   </si>
   <si>
-    <t>RA003/N</t>
-  </si>
-  <si>
     <t>Negative</t>
   </si>
   <si>
-    <t>RJ004/N</t>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
@@ -158,12 +137,6 @@
     <t>TC011</t>
   </si>
   <si>
-    <t>TC012</t>
-  </si>
-  <si>
-    <t>RJ006/N</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
@@ -176,19 +149,127 @@
     <t>TC015</t>
   </si>
   <si>
-    <t>Severity (Major, Minor)</t>
-  </si>
-  <si>
     <t>Initiate the system, move the Arduino board from its original location</t>
   </si>
   <si>
     <t>The Arduino would pick up the movement and send a seven to the Java code to initiate the breach email</t>
   </si>
   <si>
-    <t xml:space="preserve">The Arduino board would </t>
-  </si>
-  <si>
     <t>Initiate the system, and place a object in the path of the ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>The Arduino board would re-callaborate to the next wall to a distance of two metres</t>
+  </si>
+  <si>
+    <t>When initialised the Arduino boards LED lights will show at what stage it is currently at</t>
+  </si>
+  <si>
+    <t>The Arduino picked up the movement and thus sent an email to the specified recipient.</t>
+  </si>
+  <si>
+    <t>The Arduino shows a red LED for not collaborated, yellow LED shows that it is collaborating and green LED to state it is ready to receive movement</t>
+  </si>
+  <si>
+    <t>When the Arduino is knocked and is facing another object, the Arduino system will loop and therefore LED's will start over.</t>
+  </si>
+  <si>
+    <t>The LED's will start over when the Arduino has re-callaborated.</t>
+  </si>
+  <si>
+    <t>The Arduino board  re-callaborate to the next wall to a distance of two metres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LED's loop when the Arduino re-calibrated </t>
+  </si>
+  <si>
+    <t>The button is pressed to turn the Arduino off and on.</t>
+  </si>
+  <si>
+    <t>When the button is pressed once it turns on and starts calliborating and then the second time it turns the Arduino off.</t>
+  </si>
+  <si>
+    <t>The Arduino turned off and on when expected and ran the Arduino as wanted/expected.</t>
+  </si>
+  <si>
+    <t>The Java program will receive a set of numbers stating what status the Arduino is currently at.</t>
+  </si>
+  <si>
+    <t>The Java will receive the number 5, 6, 7 and 8. All showing the various Arduino status</t>
+  </si>
+  <si>
+    <t>The Java received the number 5 from the Arduino and sent back a 6 to confirm communication. Arduino printed the numbers 7 to show a breach which then implemented the Java code and received a 8 if there was a problem with the Arduino.</t>
+  </si>
+  <si>
+    <t>Initilise the program and the Java and Arduino will receive and send their status through the serial port.Tt</t>
+  </si>
+  <si>
+    <t>The Java and Arduino will receive and send numbers through the serial port</t>
+  </si>
+  <si>
+    <t>The java and Arduino sent numbers through the serial port stating their status.</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>RJ009</t>
+  </si>
+  <si>
+    <t>Turning off Java when Arduino is running</t>
+  </si>
+  <si>
+    <t>Through the Arduino send a number other than 5 to 8.</t>
+  </si>
+  <si>
+    <t>When the number is types through the Arduino serial port nothing will happen.</t>
+  </si>
+  <si>
+    <t>When the number 4 was sent through the serial port nothing happened as the Java had not been told do anything when receiving the number 4</t>
+  </si>
+  <si>
+    <t>When the number 7 is received from the Arduino it will send a automated email to the specified recipient.</t>
+  </si>
+  <si>
+    <t>A email will be sent when the number 7 is received to the recipient specified.</t>
+  </si>
+  <si>
+    <t>A email was sent when the number 7 was received to the recipient specified.</t>
+  </si>
+  <si>
+    <t>When a different number is sent it should not send an email to the specified recipient.</t>
+  </si>
+  <si>
+    <t>By sending a number other than 5,6,7,8 nothing should happen as it has not been programmed to do anything.</t>
+  </si>
+  <si>
+    <t>Nothing happened when sending the number 9 as it had not been programmed to do so.</t>
+  </si>
+  <si>
+    <t>On the Java serial port when the email is sent it will state that the email was sent successfully.</t>
+  </si>
+  <si>
+    <t>In the Java serial port it will state that the email was succesfully sent to the recipient.</t>
+  </si>
+  <si>
+    <t>In the Java serial port it  stated that the email was succesfully sent to the recipient.</t>
+  </si>
+  <si>
+    <t>When the overall program is running turn the Java program off but leave the Arduino program running.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Arduino program will still keep running even when the Java is turned off. </t>
+  </si>
+  <si>
+    <t>The Java code was turned off and the Arduino code kept functioning and when their was movement it still displayed a seven on the serial port but however nothing happened because the Java was turned off.</t>
+  </si>
+  <si>
+    <t>When the numbers 7 and 8 is received it will implement the send email code either of a breach or a error with the porgram.</t>
+  </si>
+  <si>
+    <t>The Java will send a email to the recipient stating whether there was a breach or that there is an error with the program.</t>
+  </si>
+  <si>
+    <t>The Java sends an email to the recipient with the information that there was a breach when received a 7 and an email stating that there is an error with the program when an 8 was sent.</t>
   </si>
 </sst>
 </file>
@@ -212,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +324,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,19 +339,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,285 +679,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A2:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="95.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="220.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="E16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
